--- a/Shraddha Hospital/Hospital Bills/All Bill-20-21(Shraddha).xlsx
+++ b/Shraddha Hospital/Hospital Bills/All Bill-20-21(Shraddha).xlsx
@@ -12,13 +12,16 @@
     <sheet name="Jain(Shraddha)20-21" sheetId="6" r:id="rId3"/>
     <sheet name="Vac(Shraddha)-20-21" sheetId="8" r:id="rId4"/>
     <sheet name="Arvind- Tripathi20-21(Shraddha)" sheetId="10" r:id="rId5"/>
+    <sheet name="Kale Return Medicine List" sheetId="11" r:id="rId6"/>
+    <sheet name="Amit Return Medicine List" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>DATE</t>
   </si>
@@ -60,6 +63,180 @@
   </si>
   <si>
     <t>CC/466</t>
+  </si>
+  <si>
+    <t>Amit Medical</t>
+  </si>
+  <si>
+    <t>CC/676</t>
+  </si>
+  <si>
+    <t>CC739</t>
+  </si>
+  <si>
+    <t>Parazet Sus 250mg</t>
+  </si>
+  <si>
+    <t>Shraddha</t>
+  </si>
+  <si>
+    <t>LJ9121A</t>
+  </si>
+  <si>
+    <t>Mefy-P Sup 60ml</t>
+  </si>
+  <si>
+    <t>LI19065C</t>
+  </si>
+  <si>
+    <t>Nflox- MZ Sup 30ml</t>
+  </si>
+  <si>
+    <t>JNFL-004</t>
+  </si>
+  <si>
+    <t>Festive- MZ Sup 30ml</t>
+  </si>
+  <si>
+    <t>JNFL-008</t>
+  </si>
+  <si>
+    <t>JFMZS-013</t>
+  </si>
+  <si>
+    <t>Ranydol drops 30ml</t>
+  </si>
+  <si>
+    <t>Amrox drops 15ml</t>
+  </si>
+  <si>
+    <t>Coldmine drops 15ml</t>
+  </si>
+  <si>
+    <t>Platost Juice</t>
+  </si>
+  <si>
+    <t>Hungree</t>
+  </si>
+  <si>
+    <t>Drox-500DT Tab</t>
+  </si>
+  <si>
+    <t>Nflox-B400 Tab</t>
+  </si>
+  <si>
+    <t>AKL90046</t>
+  </si>
+  <si>
+    <t>AKL90719</t>
+  </si>
+  <si>
+    <t>AKL90657</t>
+  </si>
+  <si>
+    <t>AKL90837</t>
+  </si>
+  <si>
+    <t>HA-617</t>
+  </si>
+  <si>
+    <t>JHNL-031</t>
+  </si>
+  <si>
+    <t>JXTT-003</t>
+  </si>
+  <si>
+    <t>INBT-039</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Bill Date</t>
+  </si>
+  <si>
+    <t>Batch No.</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Exp Date</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Gst%</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sanjiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Face Mask KN 95</t>
+  </si>
+  <si>
+    <t>Clear Chest LS</t>
+  </si>
+  <si>
+    <t>JCCLS-002</t>
+  </si>
+  <si>
+    <t>Azamin Sup.</t>
+  </si>
+  <si>
+    <t>S1909001</t>
+  </si>
+  <si>
+    <t>Vomiford MD</t>
+  </si>
+  <si>
+    <t>AFDIZ 250mg (Tab)</t>
+  </si>
+  <si>
+    <t>Tuber Vac -B.C.G.</t>
+  </si>
+  <si>
+    <t>0379G067</t>
+  </si>
+  <si>
+    <t>AT-053919</t>
+  </si>
+  <si>
+    <t>Curewax Ear Drop 10ml</t>
+  </si>
+  <si>
+    <t>Hb Ford Inj-15mi</t>
+  </si>
+  <si>
+    <t>Vita-C-Plex Ing</t>
+  </si>
+  <si>
+    <t>LHL-4030</t>
+  </si>
+  <si>
+    <t>P-1907054</t>
+  </si>
+  <si>
+    <t>Face Sheld Delux</t>
+  </si>
+  <si>
+    <t>Online(SB)</t>
   </si>
 </sst>
 </file>
@@ -69,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +257,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -140,6 +324,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,6 +709,9 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
+      <c r="I2">
+        <v>10170</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5">
@@ -529,6 +738,9 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
+      <c r="I3">
+        <v>10170</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5">
@@ -545,6 +757,47 @@
       </c>
       <c r="E4">
         <v>3511</v>
+      </c>
+      <c r="F4">
+        <v>3511</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44012</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>44002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2428</v>
+      </c>
+      <c r="E5">
+        <v>4082</v>
+      </c>
+      <c r="F5">
+        <v>4082</v>
+      </c>
+      <c r="G5" s="5">
+        <v>44012</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
@@ -554,17 +807,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="13" style="5" customWidth="1"/>
@@ -597,6 +850,23 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>43981</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>351</v>
+      </c>
+      <c r="E2">
+        <v>2400</v>
       </c>
     </row>
   </sheetData>
@@ -654,10 +924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,6 +984,46 @@
       </c>
       <c r="F2">
         <v>1665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2342</v>
+      </c>
+      <c r="F3">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>43995</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>792</v>
+      </c>
+      <c r="F4">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -770,4 +1080,995 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="5" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7">
+        <v>43876</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8">
+        <v>44440</v>
+      </c>
+      <c r="H2" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="I2" s="6">
+        <v>9.25</v>
+      </c>
+      <c r="J2" s="6">
+        <v>231.25</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43841</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8">
+        <v>44409</v>
+      </c>
+      <c r="H3" s="6">
+        <v>48</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10.45</v>
+      </c>
+      <c r="J3" s="6">
+        <v>229.9</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43876</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8">
+        <v>44287</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49</v>
+      </c>
+      <c r="I4" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>151</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43899</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>44378</v>
+      </c>
+      <c r="H5" s="6">
+        <v>57</v>
+      </c>
+      <c r="I5" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>302</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43883</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8">
+        <v>44287</v>
+      </c>
+      <c r="H6" s="6">
+        <v>55.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>151</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43904</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8">
+        <v>44287</v>
+      </c>
+      <c r="H7" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="I7" s="6">
+        <v>12.81</v>
+      </c>
+      <c r="J7" s="6">
+        <v>182.15</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43904</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>44470</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6">
+        <v>14</v>
+      </c>
+      <c r="J8" s="6">
+        <v>350</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43855</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44440</v>
+      </c>
+      <c r="H9" s="6">
+        <v>45</v>
+      </c>
+      <c r="I9" s="6">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6">
+        <v>140</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43904</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8">
+        <v>44501</v>
+      </c>
+      <c r="H10" s="6">
+        <v>60</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>382.5</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43784</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44713</v>
+      </c>
+      <c r="H11" s="6">
+        <v>260</v>
+      </c>
+      <c r="I11" s="6">
+        <v>130</v>
+      </c>
+      <c r="J11" s="6">
+        <v>260</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43876</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>44287</v>
+      </c>
+      <c r="H12" s="6">
+        <v>89</v>
+      </c>
+      <c r="I12" s="6">
+        <v>24</v>
+      </c>
+      <c r="J12" s="6">
+        <v>120</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43924</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="6">
+        <v>30</v>
+      </c>
+      <c r="G13" s="8">
+        <v>44409</v>
+      </c>
+      <c r="H13" s="6">
+        <v>44.25</v>
+      </c>
+      <c r="I13" s="6">
+        <v>36</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1080</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43650</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <v>44470</v>
+      </c>
+      <c r="H14" s="6">
+        <v>265</v>
+      </c>
+      <c r="I14" s="6">
+        <v>80.5</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1207.5</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43650</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5059006</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8">
+        <v>44228</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>6.27</v>
+      </c>
+      <c r="J15" s="6">
+        <v>125.4</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43897</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>44531</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45</v>
+      </c>
+      <c r="I16" s="6">
+        <v>11.45</v>
+      </c>
+      <c r="J16" s="6">
+        <v>114.5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="7">
+        <v>43899</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8">
+        <v>44531</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11.45</v>
+      </c>
+      <c r="J17" s="6">
+        <v>114.5</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="7">
+        <v>43799</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="8">
+        <v>44348</v>
+      </c>
+      <c r="H18" s="6">
+        <v>282</v>
+      </c>
+      <c r="I18" s="6">
+        <v>38.15</v>
+      </c>
+      <c r="J18" s="6">
+        <v>191</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="7">
+        <v>43784</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4055</v>
+      </c>
+      <c r="F19" s="6">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8">
+        <v>44317</v>
+      </c>
+      <c r="H19" s="6">
+        <v>22</v>
+      </c>
+      <c r="I19" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>170</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="7">
+        <v>43986</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>289</v>
+      </c>
+      <c r="I20" s="6">
+        <v>185</v>
+      </c>
+      <c r="J20" s="6">
+        <v>185</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7">
+        <v>43986</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6">
+        <v>399</v>
+      </c>
+      <c r="I21" s="6">
+        <v>75</v>
+      </c>
+      <c r="J21" s="6">
+        <v>750</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43861</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2" s="12">
+        <v>44501</v>
+      </c>
+      <c r="H2">
+        <v>83.5</v>
+      </c>
+      <c r="I2">
+        <v>506</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11">
+        <v>43918</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44409</v>
+      </c>
+      <c r="H3">
+        <v>28.5</v>
+      </c>
+      <c r="I3">
+        <v>190</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43918</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12">
+        <v>44470</v>
+      </c>
+      <c r="H4">
+        <v>58.9</v>
+      </c>
+      <c r="I4">
+        <v>280</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43885</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="15">
+        <v>11</v>
+      </c>
+      <c r="G2" s="12">
+        <v>44440</v>
+      </c>
+      <c r="H2">
+        <v>61.19</v>
+      </c>
+      <c r="I2">
+        <v>538.55999999999995</v>
+      </c>
+      <c r="J2">
+        <v>48.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>